--- a/Financials/Berkshire Hathaway.xlsx
+++ b/Financials/Berkshire Hathaway.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1AF6F0-0BBF-6F4B-9DD6-8F7EEC9B5B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B409AE-106F-344E-997C-77C841B22AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28080" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28080" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$AJ$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$AJ$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$AJ$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$AJ$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$AJ$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$AJ$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$AJ$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$AJ$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$AJ$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -334,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Berkshire Hathaway</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -541,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -884,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -975,11 +991,6 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1001,12 +1012,13 @@
     <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,12 +1031,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2372,6 +2381,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1otrw&amp;q=XNYS%3aBRK.B&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>BERKSHIRE HATHAWAY INC., (XNYS:BRK.B)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1otrw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>354.33</v>
+    <v>259.85000000000002</v>
+    <v>0.87180000000000002</v>
+    <v>2.12</v>
+    <v>6.8300000000000001E-3</v>
+    <v>0.28000000000000003</v>
+    <v>8.9599999999999999E-4</v>
+    <v>USD</v>
+    <v>Berkshire Hathaway Inc. (Berkshire) is a holding company owning subsidiaries engaged in various business activities. Berkshire’s various business activities include insurance businesses conducted on both a primary basis and a reinsurance basis. Its segments include Insurance, which consists of GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group; Railroad, which includes operations of railroad systems in North America through Burlington Northern Santa Fe LLC; Utilities and energy, which includes regulated electric and gas utility; Manufacturing, which include manufacture of various products, including industrial, consumer and building products; McLane Company, which include wholesale distribution of groceries and non-food items, and Service and retailing, which provide shared aircraft ownership programs, aviation pilot training, electronic components distribution and various retailing businesses, including automobile dealerships and furniture leasing.</v>
+    <v>383000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>3555 Farnam St, OMAHA, NE, 68131 US</v>
+    <v>313.22000000000003</v>
+    <v>Consumer Goods Conglomerates</v>
+    <v>Stock</v>
+    <v>45022.999904409378</v>
+    <v>0</v>
+    <v>309.05</v>
+    <v>687834100000</v>
+    <v>BERKSHIRE HATHAWAY INC.,</v>
+    <v>BERKSHIRE HATHAWAY INC.,</v>
+    <v>309.82</v>
+    <v>58.405200000000001</v>
+    <v>310.39</v>
+    <v>312.51</v>
+    <v>312.79000000000002</v>
+    <v>1455700</v>
+    <v>BRK.B</v>
+    <v>BERKSHIRE HATHAWAY INC., (XNYS:BRK.B)</v>
+    <v>3132148</v>
+    <v>4631974</v>
+    <v>1998</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2672,10 +3121,10 @@
   <dimension ref="A1:AS118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP29" sqref="AP29"/>
+      <selection pane="bottomRight" activeCell="AL91" sqref="AL91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2687,8 +3136,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1988</v>
@@ -3057,21 +3506,21 @@
         <v>474600000000</v>
       </c>
       <c r="AP3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AQ3" s="19" t="s">
+      <c r="AR3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AS3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AS3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3467,16 +3916,16 @@
         <v>92</v>
       </c>
       <c r="AP6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AQ6" s="19" t="s">
+      <c r="AR6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AR6" s="19" t="s">
+      <c r="AS6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AS6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -3717,7 +4166,7 @@
     </row>
     <row r="9" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3860,16 +4309,16 @@
         <v>0</v>
       </c>
       <c r="AP9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AQ9" s="19" t="s">
+      <c r="AR9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AR9" s="19" t="s">
+      <c r="AS9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AS9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -4218,21 +4667,21 @@
         <v>19506000000</v>
       </c>
       <c r="AP12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AQ12" s="19" t="s">
+      <c r="AR12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AR12" s="19" t="s">
+      <c r="AS12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AS12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4611,16 +5060,16 @@
         <v>92</v>
       </c>
       <c r="AP15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AQ15" s="19" t="s">
+      <c r="AR15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AR15" s="19" t="s">
+      <c r="AS15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AS15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -4738,15 +5187,15 @@
       </c>
       <c r="AQ16" s="27">
         <f>AR101/AJ3</f>
-        <v>2.2182767330157667</v>
+        <v>2.2769253431935623</v>
       </c>
       <c r="AR16" s="27">
         <f>AR101/AJ28</f>
-        <v>-29.366624304307813</v>
+        <v>-30.143043078136639</v>
       </c>
       <c r="AS16" s="28">
         <f>AR101/AJ106</f>
-        <v>30.795818014705883</v>
+        <v>31.610022977941178</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -4969,7 +5418,7 @@
         <v>10899000000</v>
       </c>
       <c r="AP18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5088,7 +5537,7 @@
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6110,7 +6559,7 @@
     </row>
     <row r="29" spans="1:42" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6802,7 +7251,7 @@
     </row>
     <row r="35" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -11784,7 +12233,7 @@
     </row>
     <row r="80" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:AI80" si="8">B79/B3</f>
@@ -12256,10 +12705,10 @@
       <c r="AJ83" s="1">
         <v>-4779000000</v>
       </c>
-      <c r="AQ83" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR83" s="63"/>
+      <c r="AQ83" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR83" s="59"/>
     </row>
     <row r="84" spans="1:44" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12370,10 +12819,10 @@
       <c r="AJ84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ84" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR84" s="65"/>
+      <c r="AQ84" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR84" s="61"/>
     </row>
     <row r="85" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12484,10 +12933,10 @@
       <c r="AJ85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ85" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR85" s="51">
+      <c r="AQ85" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR85" s="48">
         <f>AJ17</f>
         <v>1187000000</v>
       </c>
@@ -12601,10 +13050,10 @@
       <c r="AJ86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ86" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR86" s="51">
+      <c r="AQ86" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR86" s="48">
         <f>AJ56</f>
         <v>3712000000</v>
       </c>
@@ -12718,10 +13167,10 @@
       <c r="AJ87" s="10">
         <v>37224000000</v>
       </c>
-      <c r="AQ87" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR87" s="51">
+      <c r="AQ87" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR87" s="48">
         <f>AJ61</f>
         <v>120315000000</v>
       </c>
@@ -12835,17 +13284,17 @@
       <c r="AJ88" s="1">
         <v>-15464000000</v>
       </c>
-      <c r="AQ88" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR88" s="53">
+      <c r="AQ88" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR88" s="50">
         <f>AR85/(AR86+AR87)</f>
         <v>9.5704967466761267E-3</v>
       </c>
     </row>
     <row r="89" spans="1:44" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AI89" si="10">(-1*B88)/B3</f>
@@ -12987,10 +13436,10 @@
         <f t="shared" ref="AJ89" si="11">(-1*AJ88)/AJ3</f>
         <v>5.1190212156020244E-2</v>
       </c>
-      <c r="AQ89" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR89" s="51">
+      <c r="AQ89" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR89" s="48">
         <f>AJ27</f>
         <v>8518000000</v>
       </c>
@@ -13104,10 +13553,10 @@
       <c r="AJ90" s="1">
         <v>-10594000000</v>
       </c>
-      <c r="AQ90" s="50" t="s">
+      <c r="AQ90" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AR90" s="51">
+      <c r="AR90" s="48">
         <f>AJ25</f>
         <v>-32439000000</v>
       </c>
@@ -13221,10 +13670,10 @@
       <c r="AJ91" s="1">
         <v>-67930000000</v>
       </c>
-      <c r="AQ91" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR91" s="53">
+      <c r="AQ91" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR91" s="50">
         <f>AR89/AR90</f>
         <v>-0.26258515983846603</v>
       </c>
@@ -13338,10 +13787,10 @@
       <c r="AJ92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ92" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR92" s="55">
+      <c r="AQ92" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR92" s="52">
         <f>AR88*(1-AR91)</f>
         <v>1.2083567164635597E-2</v>
       </c>
@@ -13455,10 +13904,10 @@
       <c r="AJ93" s="1">
         <v>6387000000</v>
       </c>
-      <c r="AQ93" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR93" s="65"/>
+      <c r="AQ93" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR93" s="61"/>
     </row>
     <row r="94" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13569,10 +14018,10 @@
       <c r="AJ94" s="10">
         <v>-87601000000</v>
       </c>
-      <c r="AQ94" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR94" s="56">
+      <c r="AQ94" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR94" s="53">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13685,11 +14134,12 @@
       <c r="AJ95" s="1">
         <v>-3928000000</v>
       </c>
-      <c r="AQ95" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR95" s="59">
-        <v>0.88</v>
+      <c r="AQ95" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR95" s="62" cm="1">
+        <f t="array" ref="AR95">_FV(A1,"Beta")</f>
+        <v>0.87180000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -13801,10 +14251,10 @@
       <c r="AJ96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ96" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR96" s="56">
+      <c r="AQ96" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR96" s="53">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13917,12 +14367,12 @@
       <c r="AJ97" s="1">
         <v>-183922000000</v>
       </c>
-      <c r="AQ97" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR97" s="55">
+      <c r="AQ97" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR97" s="52">
         <f>(AR94)+((AR95)*(AR96-AR94))</f>
-        <v>7.8834000000000015E-2</v>
+        <v>7.848099E-2</v>
       </c>
     </row>
     <row r="98" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14034,10 +14484,10 @@
       <c r="AJ98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ98" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR98" s="65"/>
+      <c r="AQ98" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR98" s="61"/>
     </row>
     <row r="99" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14148,10 +14598,10 @@
       <c r="AJ99" s="1">
         <v>186188000000</v>
       </c>
-      <c r="AQ99" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR99" s="51">
+      <c r="AQ99" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR99" s="48">
         <f>AR86+AR87</f>
         <v>124027000000</v>
       </c>
@@ -14265,12 +14715,12 @@
       <c r="AJ100" s="10">
         <v>-1662000000</v>
       </c>
-      <c r="AQ100" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR100" s="53">
+      <c r="AQ100" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR100" s="50">
         <f>AR99/AR103</f>
-        <v>0.15617696538663015</v>
+        <v>0.15276874332321133</v>
       </c>
     </row>
     <row r="101" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14382,11 +14832,12 @@
       <c r="AJ101" s="1">
         <v>-268000000</v>
       </c>
-      <c r="AQ101" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR101" s="60">
-        <v>670117000000</v>
+      <c r="AQ101" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR101" s="41" cm="1">
+        <f t="array" ref="AR101">_FV(A1,"Market cap",TRUE)</f>
+        <v>687834100000</v>
       </c>
     </row>
     <row r="102" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14498,12 +14949,12 @@
       <c r="AJ102" s="10">
         <v>-52307000000</v>
       </c>
-      <c r="AQ102" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR102" s="53">
+      <c r="AQ102" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR102" s="50">
         <f>AR101/AR103</f>
-        <v>0.84382303461336983</v>
+        <v>0.84723125667678867</v>
       </c>
     </row>
     <row r="103" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14615,12 +15066,12 @@
       <c r="AJ103" s="1">
         <v>88706000000</v>
       </c>
-      <c r="AQ103" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR103" s="57">
+      <c r="AQ103" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR103" s="54">
         <f>AR99+AR101</f>
-        <v>794144000000</v>
+        <v>811861100000</v>
       </c>
     </row>
     <row r="104" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14732,14 +15183,14 @@
       <c r="AJ104" s="11">
         <v>36399000000</v>
       </c>
-      <c r="AQ104" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR104" s="65"/>
+      <c r="AQ104" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR104" s="61"/>
     </row>
     <row r="105" spans="1:44" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -14885,11 +15336,11 @@
       <c r="AO105" s="15"/>
       <c r="AP105" s="15"/>
       <c r="AQ105" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AR105" s="24">
         <f>(AR100*AR92)+(AR102*AR97)</f>
-        <v>6.8409119961528722E-2</v>
+        <v>6.8337539153541488E-2</v>
       </c>
     </row>
     <row r="106" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15022,10 +15473,10 @@
         <v>34362770504.364708</v>
       </c>
       <c r="AP106" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ106" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="AQ106" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="AR106" s="33">
         <f>(SUM(AK4:AO4)/5)</f>
@@ -15074,13 +15525,13 @@
       <c r="AN107" s="31"/>
       <c r="AO107" s="34">
         <f>AO106*(1+AR107)/(AR108-AR107)</f>
-        <v>811392624365.3208</v>
+        <v>812732805205.79675</v>
       </c>
       <c r="AP107" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ107" s="36" t="s">
         <v>149</v>
-      </c>
-      <c r="AQ107" s="36" t="s">
-        <v>150</v>
       </c>
       <c r="AR107" s="37">
         <v>2.5000000000000001E-2</v>
@@ -15105,37 +15556,37 @@
       </c>
       <c r="AO108" s="34">
         <f>AO107+AO106</f>
-        <v>845755394869.68555</v>
+        <v>847095575710.1615</v>
       </c>
       <c r="AP108" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AQ108" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AR108" s="39">
         <f>AR105</f>
-        <v>6.8409119961528722E-2</v>
+        <v>6.8337539153541488E-2</v>
       </c>
     </row>
     <row r="109" spans="1:44" ht="19" x14ac:dyDescent="0.25">
-      <c r="AK109" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL109" s="67"/>
+      <c r="AK109" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL109" s="57"/>
     </row>
     <row r="110" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="AK110" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AL110" s="41">
         <f>NPV(AR108,AK108,AL108,AM108,AN108,AO108)</f>
-        <v>700253695646.37891</v>
+        <v>701435965875.53735</v>
       </c>
     </row>
     <row r="111" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="AK111" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL111" s="41">
         <f>AJ40</f>
@@ -15144,7 +15595,7 @@
     </row>
     <row r="112" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="AK112" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL112" s="41">
         <f>AR99</f>
@@ -15153,16 +15604,16 @@
     </row>
     <row r="113" spans="37:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AK113" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL113" s="41">
         <f>AL110+AL111-AL112</f>
-        <v>701260695646.37891</v>
+        <v>702442965875.53735</v>
       </c>
     </row>
     <row r="114" spans="37:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AK114" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL114" s="42">
         <f>AJ34*(1+(5*AP16))</f>
@@ -15171,36 +15622,37 @@
     </row>
     <row r="115" spans="37:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AK115" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL115" s="44">
+        <v>156</v>
+      </c>
+      <c r="AL115" s="64">
         <f>AL113/AL114</f>
-        <v>337.78002381612538</v>
+        <v>338.34949429784706</v>
       </c>
     </row>
     <row r="116" spans="37:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK116" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL116" s="46">
-        <v>305.33</v>
+      <c r="AK116" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL116" s="63" cm="1">
+        <f t="array" ref="AL116">_FV(A1,"Price")</f>
+        <v>312.51</v>
       </c>
     </row>
     <row r="117" spans="37:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK117" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL117" s="48">
+      <c r="AK117" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL117" s="45">
         <f>AL115/AL116-1</f>
-        <v>0.10627853082279959</v>
-      </c>
-      <c r="AN117" s="61"/>
+        <v>8.2683735873562592E-2</v>
+      </c>
+      <c r="AN117" s="55"/>
     </row>
     <row r="118" spans="37:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK118" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL118" s="49" t="str">
+      <c r="AK118" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL118" s="46" t="str">
         <f>IF(AL115&gt;AL116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Financials/Berkshire Hathaway.xlsx
+++ b/Financials/Berkshire Hathaway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB5E6B-17B0-9A48-860E-CB525FCBCE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724DD1D4-631F-274E-A9C7-C59AD4228978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2088,19 +2088,19 @@
                   <c:v>21760000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54876000000</c:v>
+                  <c:v>52310000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55162000000</c:v>
+                  <c:v>53148000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54628000000</c:v>
+                  <c:v>58090000000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65333000000</c:v>
+                  <c:v>67589000000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>66991000000</c:v>
+                  <c:v>66990000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,12 +2874,9 @@
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
       <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2908,9 +2905,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3039,10 +3033,8 @@
     <v>373.34</v>
     <v>282.38</v>
     <v>0.87749999999999995</v>
-    <v>-4.45</v>
-    <v>-1.3238000000000002E-2</v>
-    <v>0.1</v>
-    <v>3.0150000000000001E-4</v>
+    <v>5.7</v>
+    <v>1.7183999999999998E-2</v>
     <v>USD</v>
     <v>Berkshire Hathaway Inc. (Berkshire) is a holding company owning subsidiaries engaged in various business activities. Berkshire’s various business activities include insurance businesses conducted on both a primary basis and a reinsurance basis. Its segments include Insurance, which consists of GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group; Railroad (BNSF), which includes operations of railroad systems in North America through Burlington Northern Santa Fe LLC; Berkshire Hathaway Energy, which includes regulated electric and gas utility; Manufacturing, which include manufacture of various products, including industrial, consumer and building products; McLane Company, which include wholesale distribution of groceries and non-food items; Service and retailing, which provide shared aircraft ownership programs, aviation pilot training, electronic components distribution and various retailing businesses, and Pilot Travel Centers (Pilot).</v>
     <v>383000</v>
@@ -3050,25 +3042,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3555 Farnam St, OMAHA, NE, 68131 US</v>
-    <v>336.19</v>
+    <v>338.36</v>
     <v>Consumer Goods Conglomerates</v>
     <v>Stock</v>
-    <v>45226.999739675783</v>
+    <v>45229.999499351565</v>
     <v>0</v>
-    <v>330.58</v>
+    <v>332.17500000000001</v>
     <v>723501800000</v>
     <v>BERKSHIRE HATHAWAY INC.,</v>
     <v>BERKSHIRE HATHAWAY INC.,</v>
-    <v>336.12</v>
-    <v>8.3934999999999995</v>
-    <v>336.16</v>
+    <v>332.96</v>
+    <v>8.5376999999999992</v>
     <v>331.71</v>
-    <v>331.81</v>
+    <v>337.41</v>
     <v>1447370</v>
     <v>BRK.B</v>
     <v>BERKSHIRE HATHAWAY INC., (XNYS:BRK.B)</v>
-    <v>3609115</v>
-    <v>3058054</v>
+    <v>72</v>
+    <v>3043614</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -3100,8 +3091,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3122,7 +3111,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3139,7 +3127,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3150,16 +3138,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3225,19 +3210,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3282,9 +3261,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3292,9 +3268,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3659,7 +3632,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AG93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ121" sqref="AJ121"/>
+      <selection pane="bottomRight" activeCell="AN101" sqref="AN101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4586,7 +4559,7 @@
       </c>
       <c r="AS7" s="20">
         <f>AK107/AK3</f>
-        <v>0.17311041009463723</v>
+        <v>0.16501577287066246</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -6103,7 +6076,7 @@
       </c>
       <c r="AS19" s="33">
         <f>AR102/AK107</f>
-        <v>13.184302791748669</v>
+        <v>13.831041865800039</v>
       </c>
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6526,7 +6499,7 @@
       </c>
       <c r="AS22" s="35">
         <f>AK107/AR102</f>
-        <v>7.5847772597110327E-2</v>
+        <v>7.2301133183082608E-2</v>
       </c>
     </row>
     <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -16157,23 +16130,23 @@
       </c>
       <c r="AK105" s="55">
         <f>AK107/AK3</f>
-        <v>0.17311041009463723</v>
+        <v>0.16501577287066246</v>
       </c>
       <c r="AL105" s="55">
         <f>AL107/AL3</f>
-        <v>0.16392867756315008</v>
+        <v>0.15794353640416048</v>
       </c>
       <c r="AM105" s="55">
         <f>AM107/AM3</f>
-        <v>0.15497304964539008</v>
+        <v>0.16479432624113474</v>
       </c>
       <c r="AN105" s="55">
         <f>AN107/AN3</f>
-        <v>0.17643262219821765</v>
+        <v>0.18252497974615176</v>
       </c>
       <c r="AO105" s="55">
         <f>AO107/AO3</f>
-        <v>0.17481993736951984</v>
+        <v>0.17481732776617953</v>
       </c>
       <c r="AP105" s="59" t="s">
         <v>160</v>
@@ -16326,27 +16299,27 @@
       </c>
       <c r="AK106" s="56">
         <f>(AK107/AJ107)-1</f>
-        <v>1.5218750000000001</v>
+        <v>1.4039522058823528</v>
       </c>
       <c r="AL106" s="56">
         <f>(AL107/AK107)-1</f>
-        <v>5.2117501275603662E-3</v>
+        <v>1.6019881475817233E-2</v>
       </c>
       <c r="AM106" s="56">
         <f>(AM107/AL107)-1</f>
-        <v>-9.6805772089482156E-3</v>
+        <v>9.2985625047038445E-2</v>
       </c>
       <c r="AN106" s="56">
         <f>(AN107/AM107)-1</f>
-        <v>0.19596177784286439</v>
+        <v>0.16352212084696172</v>
       </c>
       <c r="AO106" s="56">
         <f>(AO107/AN107)-1</f>
-        <v>2.5377680498369859E-2</v>
+        <v>-8.8623888502566972E-3</v>
       </c>
       <c r="AP106" s="57">
         <f>SUM(AK106:AO106)/5</f>
-        <v>0.3477491262519693</v>
+        <v>0.33352348888038269</v>
       </c>
       <c r="AQ106" s="28" t="s">
         <v>106</v>
@@ -16466,19 +16439,19 @@
         <v>21760000000</v>
       </c>
       <c r="AK107" s="60">
-        <v>54876000000</v>
+        <v>52310000000</v>
       </c>
       <c r="AL107" s="60">
-        <v>55162000000</v>
+        <v>53148000000</v>
       </c>
       <c r="AM107" s="60">
-        <v>54628000000</v>
+        <v>58090000000</v>
       </c>
       <c r="AN107" s="60">
-        <v>65333000000</v>
+        <v>67589000000</v>
       </c>
       <c r="AO107" s="60">
-        <v>66991000000</v>
+        <v>66990000000</v>
       </c>
       <c r="AP107" s="59" t="s">
         <v>161</v>
@@ -16498,7 +16471,7 @@
       <c r="AN108" s="61"/>
       <c r="AO108" s="62">
         <f>AO107*(1+AR108)/(AR109-AR108)</f>
-        <v>1373257592085.5156</v>
+        <v>1373237092949.929</v>
       </c>
       <c r="AP108" s="63" t="s">
         <v>145</v>
@@ -16513,23 +16486,23 @@
     <row r="109" spans="1:44" ht="19" x14ac:dyDescent="0.2">
       <c r="AK109" s="62">
         <f t="shared" ref="AK109:AM109" si="16">AK108+AK107</f>
-        <v>54876000000</v>
+        <v>52310000000</v>
       </c>
       <c r="AL109" s="62">
         <f t="shared" si="16"/>
-        <v>55162000000</v>
+        <v>53148000000</v>
       </c>
       <c r="AM109" s="62">
         <f t="shared" si="16"/>
-        <v>54628000000</v>
+        <v>58090000000</v>
       </c>
       <c r="AN109" s="62">
         <f>AN108+AN107</f>
-        <v>65333000000</v>
+        <v>67589000000</v>
       </c>
       <c r="AO109" s="62">
         <f>AO108+AO107</f>
-        <v>1440248592085.5156</v>
+        <v>1440227092949.929</v>
       </c>
       <c r="AP109" s="63" t="s">
         <v>142</v>
@@ -16560,7 +16533,7 @@
       </c>
       <c r="AL111" s="47">
         <f>NPV(AR109,AK109,AL109,AM109,AN109,AO109)</f>
-        <v>1222048687680.0864</v>
+        <v>1222425356202.2039</v>
       </c>
       <c r="AM111" s="58"/>
       <c r="AN111" s="58"/>
@@ -16605,7 +16578,7 @@
       </c>
       <c r="AL114" s="47">
         <f>AL111+AL112-AL113</f>
-        <v>1223055687680.0864</v>
+        <v>1223432356202.2039</v>
       </c>
       <c r="AM114" s="58"/>
       <c r="AN114" s="58"/>
@@ -16635,7 +16608,7 @@
       </c>
       <c r="AL116" s="66">
         <f>AL114/AL115</f>
-        <v>589.11583363763907</v>
+        <v>589.29726559748156</v>
       </c>
       <c r="AM116" s="58"/>
       <c r="AN116" s="58"/>
@@ -16650,7 +16623,7 @@
       </c>
       <c r="AL117" s="67" cm="1">
         <f t="array" ref="AL117">_FV(A1,"Price")</f>
-        <v>331.71</v>
+        <v>337.41</v>
       </c>
       <c r="AM117" s="58"/>
       <c r="AN117" s="58"/>
@@ -16665,7 +16638,7 @@
       </c>
       <c r="AL118" s="68">
         <f>AL116/AL117-1</f>
-        <v>0.77599660437622964</v>
+        <v>0.74653171393106765</v>
       </c>
       <c r="AM118" s="58"/>
       <c r="AN118" s="69"/>
